--- a/OneNote Notebooks/Work.xlsx
+++ b/OneNote Notebooks/Work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA7DC78-9100-40BF-827F-89981FFF025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F7F410-BFDE-463F-9624-C499BC9A5261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Git base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Syntax</t>
   </si>
@@ -285,6 +285,30 @@
 - Sau khi thực hiện các thay đổi, bạn có thể đẩy các thay đổi này lên repository của mình bằng lệnh `git push origin [branch-name]`.
 - Nếu repository gốc có các cập nhật mới, bạn có thể lấy những cập nhật này về bằng lệnh `git pull upstream [branch-name]`.
 Hy vọng điều này giúp bạn hiểu rõ hơn về sự khác biệt giữa `origin` và `upstream` trong Git!</t>
+  </si>
+  <si>
+    <t>git branch --set-upstream-to=origin/DungHVH dung</t>
+  </si>
+  <si>
+    <t>xét luồng branch "DungHVH" từ github xuống branch "dung" trên local</t>
+  </si>
+  <si>
+    <t>git merge main</t>
+  </si>
+  <si>
+    <t>merge nhánh main vào nhánh hiện tại</t>
+  </si>
+  <si>
+    <t>Sau khi commit các thay đổi, bạn có thể kiểm tra xem merge đã hoàn tất chưa bằng cách kiểm tra lịch sử commit hoặc kiểm tra mã nguồn.</t>
+  </si>
+  <si>
+    <t>git log --oneline</t>
+  </si>
+  <si>
+    <t>git diff main..DungHVH</t>
+  </si>
+  <si>
+    <t>Xem sự khác biệt giữa nhánh main và nhánh DungHVH</t>
   </si>
 </sst>
 </file>
@@ -393,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -416,23 +440,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,23 +751,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="91.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="124.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -744,8 +781,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -757,8 +794,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
@@ -768,7 +805,7 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -779,9 +816,9 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -793,8 +830,8 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="7" t="s">
         <v>36</v>
       </c>
@@ -804,8 +841,8 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="7" t="s">
         <v>38</v>
       </c>
@@ -815,8 +852,8 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="7" t="s">
         <v>39</v>
       </c>
@@ -826,154 +863,197 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="12" t="s">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6" t="s">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="6" t="s">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="12" t="s">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6" t="s">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="6" t="s">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="6" t="s">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="6" t="s">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A5:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
